--- a/F S.xlsx
+++ b/F S.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BS" sheetId="1" r:id="rId1"/>
@@ -675,8 +675,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +862,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -940,6 +945,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -974,6 +980,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,44 +1156,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" style="7"/>
     <col min="8" max="8" width="9.140625" style="8"/>
     <col min="9" max="9" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G3" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>10001</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>1</v>
@@ -1204,7 +1216,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="14" t="s">
@@ -1217,7 +1229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
@@ -1227,7 +1239,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="14" t="s">
@@ -1237,7 +1249,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>215</v>
@@ -1248,7 +1260,7 @@
       <c r="F10" s="8"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1256,17 +1268,19 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>15000</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="14" t="s">
@@ -1277,7 +1291,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="14"/>
@@ -1288,7 +1302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="14"/>
@@ -1299,7 +1313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
@@ -1310,7 +1324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="14" t="s">
@@ -1321,7 +1335,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="14"/>
@@ -1332,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
@@ -1343,7 +1357,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="14"/>
@@ -1354,7 +1368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="14"/>
@@ -1365,7 +1379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
@@ -1376,7 +1390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="14"/>
@@ -1387,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="14" t="s">
@@ -1398,7 +1412,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="14"/>
@@ -1409,7 +1423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="14"/>
@@ -1420,7 +1434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="14"/>
@@ -1431,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="14" t="s">
@@ -1442,7 +1456,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="14"/>
@@ -1453,7 +1467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="14"/>
@@ -1464,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
@@ -1475,7 +1489,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="14"/>
@@ -1486,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="14" t="s">
@@ -1497,7 +1511,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="14"/>
@@ -1508,7 +1522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="14"/>
@@ -1519,7 +1533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="14"/>
@@ -1530,7 +1544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="14" t="s">
@@ -1541,7 +1555,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="14" t="s">
@@ -1552,7 +1566,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="14"/>
@@ -1563,7 +1577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="14" t="s">
@@ -1574,7 +1588,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="14"/>
@@ -1585,7 +1599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="14"/>
@@ -1596,7 +1610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="14"/>
@@ -1607,7 +1621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="14"/>
@@ -1618,7 +1632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="14"/>
@@ -1629,7 +1643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="14"/>
@@ -1640,7 +1654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="14"/>
@@ -1651,7 +1665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="14"/>
@@ -1662,7 +1676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="14"/>
@@ -1673,7 +1687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="14"/>
@@ -1684,7 +1698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="14"/>
@@ -1695,7 +1709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="14"/>
@@ -1706,7 +1720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="14"/>
@@ -1717,7 +1731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="14"/>
@@ -1728,7 +1742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="14"/>
@@ -1739,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="14"/>
@@ -1750,7 +1764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="14"/>
@@ -1761,7 +1775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="14"/>
@@ -1772,7 +1786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="14"/>
@@ -1783,7 +1797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="14"/>
@@ -1794,7 +1808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="14"/>
@@ -1805,7 +1819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="14"/>
@@ -1816,7 +1830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="14"/>
@@ -1827,7 +1841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="14"/>
@@ -1838,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="14"/>
@@ -1849,7 +1863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="14"/>
@@ -1860,7 +1874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="14"/>
@@ -1871,7 +1885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="14"/>
@@ -1882,7 +1896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="14"/>
@@ -1893,7 +1907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="14"/>
@@ -1904,7 +1918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="14"/>
@@ -1915,7 +1929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="14"/>
@@ -1926,7 +1940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="14" t="s">
@@ -1937,7 +1951,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="14"/>
@@ -1948,7 +1962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="14"/>
@@ -1959,7 +1973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="14"/>
@@ -1970,7 +1984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="14"/>
@@ -1981,7 +1995,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="14"/>
@@ -1992,7 +2006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="14"/>
@@ -2003,7 +2017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="14"/>
@@ -2014,7 +2028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="14" t="s">
@@ -2025,7 +2039,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="14" t="s">
@@ -2036,7 +2050,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="18"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
@@ -2046,7 +2060,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1">
+    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="16" t="s">
@@ -2059,21 +2073,23 @@
       <c r="H88" s="11"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="90" spans="1:9">
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5">
+        <v>20000</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
         <v>74</v>
@@ -2083,7 +2099,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
         <v>75</v>
@@ -2093,7 +2109,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
         <v>76</v>
@@ -2103,7 +2119,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
         <v>77</v>
@@ -2113,7 +2129,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2121,7 +2137,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1">
+    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="20" t="s">
         <v>216</v>
@@ -2132,17 +2148,19 @@
       <c r="F96" s="8"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="8">
+        <v>30000</v>
+      </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
         <v>79</v>
@@ -2152,7 +2170,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
@@ -2162,7 +2180,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2170,7 +2188,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2178,7 +2196,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
@@ -2188,7 +2206,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2196,7 +2214,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
         <v>82</v>
@@ -2206,7 +2224,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
@@ -2216,7 +2234,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
@@ -2226,7 +2244,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
@@ -2236,7 +2254,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
@@ -2246,7 +2264,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2254,7 +2272,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1">
+    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -2271,926 +2289,932 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:D145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3" t="s">
@@ -3203,12 +3227,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
